--- a/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
+++ b/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,6 +157,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -166,14 +169,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,15 +200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>483577</xdr:colOff>
+      <xdr:colOff>256440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1172</xdr:rowOff>
+      <xdr:rowOff>67115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>679987</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>202907</xdr:rowOff>
+      <xdr:colOff>452850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -227,7 +230,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="483577" y="228307"/>
+          <a:off x="256440" y="294250"/>
           <a:ext cx="899795" cy="428869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -537,18 +540,18 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
     <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="1"/>
@@ -557,46 +560,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>

--- a/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
+++ b/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
@@ -12,7 +12,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR_Code_Export!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$264</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">QR_Code_Export!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -540,7 +539,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -625,7 +624,7 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C2:J2"/>
   </mergeCells>
-  <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.13" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;10Trang &amp;P/&amp;N</oddFooter>

--- a/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
+++ b/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
@@ -11,32 +11,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR_Code_Export!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$264</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$259</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>P/B/BP/Dự án:</t>
-  </si>
-  <si>
-    <t>Ngày:</t>
-  </si>
-  <si>
-    <t>Số:</t>
-  </si>
-  <si>
-    <t>DANH SÁCH QR CODE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,47 +28,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="3"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,89 +50,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,58 +77,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>256440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>452850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="FDC"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="256440" y="294250"/>
-          <a:ext cx="899795" cy="428869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,100 +368,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="C4:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+    <row r="4" spans="3:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.13" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;10Trang &amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
+++ b/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
@@ -370,19 +370,19 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C4:F4"/>
+  <dimension ref="C1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="250" zoomScaleNormal="100" zoomScaleSheetLayoutView="250" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
@@ -391,12 +391,7 @@
     <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
-  <sheetData>
-    <row r="4" spans="3:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
+++ b/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR_Code_Export!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$259</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$298</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -372,8 +372,8 @@
   </sheetPr>
   <dimension ref="C1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="250" zoomScaleNormal="100" zoomScaleSheetLayoutView="250" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
+++ b/ShopOnline/Reports/DANH_SACH_QR_CODE.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR_Code_Export!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$298</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$Q$403</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -372,8 +372,8 @@
   </sheetPr>
   <dimension ref="C1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -382,18 +382,24 @@
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="3.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;10Trang &amp;P/&amp;N</oddFooter>
   </headerFooter>
